--- a/data/pca/factorExposure/factorExposure_2010-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-28.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01454880291664019</v>
+        <v>-0.01627419525223628</v>
       </c>
       <c r="C2">
-        <v>-0.003631417527313276</v>
+        <v>-0.0007457468161937191</v>
       </c>
       <c r="D2">
-        <v>0.01204901454383352</v>
+        <v>0.007889869630399299</v>
       </c>
       <c r="E2">
-        <v>0.01353430895425121</v>
+        <v>-0.002207599504541555</v>
       </c>
       <c r="F2">
-        <v>0.02723886179596224</v>
+        <v>0.01299282760797244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1202213906334859</v>
+        <v>-0.09491073848453828</v>
       </c>
       <c r="C4">
-        <v>-0.1033874213404403</v>
+        <v>-0.01791440820336937</v>
       </c>
       <c r="D4">
-        <v>-0.003771852188177693</v>
+        <v>0.08015735234031675</v>
       </c>
       <c r="E4">
-        <v>-0.1543360893790108</v>
+        <v>0.02799455213670014</v>
       </c>
       <c r="F4">
-        <v>0.08487406812985504</v>
+        <v>-0.04001196512383826</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1312473393145317</v>
+        <v>-0.1520816942119534</v>
       </c>
       <c r="C6">
-        <v>-0.07182068046742798</v>
+        <v>-0.02470843122488622</v>
       </c>
       <c r="D6">
-        <v>0.001687667250304596</v>
+        <v>-0.02249654552584437</v>
       </c>
       <c r="E6">
-        <v>-0.08009696834855</v>
+        <v>0.01348634190750295</v>
       </c>
       <c r="F6">
-        <v>0.02127574888523446</v>
+        <v>-0.0399496190359956</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07488205382409907</v>
+        <v>-0.06232245266800831</v>
       </c>
       <c r="C7">
-        <v>-0.07960870193455154</v>
+        <v>-0.0004057306583618041</v>
       </c>
       <c r="D7">
-        <v>0.01160214852139255</v>
+        <v>0.05208727441543546</v>
       </c>
       <c r="E7">
-        <v>-0.01134438108359036</v>
+        <v>0.0128104968566096</v>
       </c>
       <c r="F7">
-        <v>-0.005057214337478496</v>
+        <v>-0.05773956986679676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04127429281294766</v>
+        <v>-0.0595111820304953</v>
       </c>
       <c r="C8">
-        <v>-0.01757036292934559</v>
+        <v>0.01270211968812624</v>
       </c>
       <c r="D8">
-        <v>0.007799896456115479</v>
+        <v>0.02816211564531712</v>
       </c>
       <c r="E8">
-        <v>-0.07808438687105967</v>
+        <v>0.01168174666540791</v>
       </c>
       <c r="F8">
-        <v>0.07695499766168712</v>
+        <v>0.02144978173315673</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08576562867381439</v>
+        <v>-0.07243974109583493</v>
       </c>
       <c r="C9">
-        <v>-0.07643864895294239</v>
+        <v>-0.01448376228491075</v>
       </c>
       <c r="D9">
-        <v>-0.02174565810159254</v>
+        <v>0.07811960787959948</v>
       </c>
       <c r="E9">
-        <v>-0.1210424434966428</v>
+        <v>0.02090149734136022</v>
       </c>
       <c r="F9">
-        <v>0.06954449745856002</v>
+        <v>-0.06085553103102662</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1368508430985073</v>
+        <v>-0.09182022569380414</v>
       </c>
       <c r="C10">
-        <v>0.1787868897340507</v>
+        <v>-0.01358710619371481</v>
       </c>
       <c r="D10">
-        <v>0.001017702423869801</v>
+        <v>-0.1731398874331041</v>
       </c>
       <c r="E10">
-        <v>0.02671444237561292</v>
+        <v>-0.03494653922091168</v>
       </c>
       <c r="F10">
-        <v>-0.03201662829911481</v>
+        <v>0.04973121734491667</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06639142622947487</v>
+        <v>-0.08860332309032401</v>
       </c>
       <c r="C11">
-        <v>-0.06204494313183745</v>
+        <v>-0.0136850340119055</v>
       </c>
       <c r="D11">
-        <v>-0.04684945045177238</v>
+        <v>0.1103717751168719</v>
       </c>
       <c r="E11">
-        <v>-0.08541601484352095</v>
+        <v>0.04066262518243003</v>
       </c>
       <c r="F11">
-        <v>0.0515208434730428</v>
+        <v>-0.02641240988867537</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07192443703681502</v>
+        <v>-0.09362985875738608</v>
       </c>
       <c r="C12">
-        <v>-0.07003389531542323</v>
+        <v>-0.01135181531950274</v>
       </c>
       <c r="D12">
-        <v>-0.05502696803255311</v>
+        <v>0.1169050936122738</v>
       </c>
       <c r="E12">
-        <v>-0.1126419650706731</v>
+        <v>0.03929363806384941</v>
       </c>
       <c r="F12">
-        <v>0.01786304126510392</v>
+        <v>-0.02862935501989594</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04214366120466312</v>
+        <v>-0.04430404025046943</v>
       </c>
       <c r="C13">
-        <v>-0.03801520577487023</v>
+        <v>-0.004878629687990669</v>
       </c>
       <c r="D13">
-        <v>0.02533406837029888</v>
+        <v>0.04302109920480107</v>
       </c>
       <c r="E13">
-        <v>-0.03723319699977815</v>
+        <v>-0.01370368999225598</v>
       </c>
       <c r="F13">
-        <v>0.02866947987047311</v>
+        <v>-0.0203728439685053</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03922839007947904</v>
+        <v>-0.0218529968949506</v>
       </c>
       <c r="C14">
-        <v>-0.03598032127886368</v>
+        <v>-0.01504744873460836</v>
       </c>
       <c r="D14">
-        <v>-0.01198410905031451</v>
+        <v>0.0296745281413719</v>
       </c>
       <c r="E14">
-        <v>-0.04967267080467911</v>
+        <v>0.01495121738633672</v>
       </c>
       <c r="F14">
-        <v>0.03390927268647329</v>
+        <v>-0.02713938195262621</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02379816903235799</v>
+        <v>-0.03249344112370069</v>
       </c>
       <c r="C15">
-        <v>-0.01696217794089163</v>
+        <v>-0.006212059434572897</v>
       </c>
       <c r="D15">
-        <v>0.07012447947202628</v>
+        <v>0.04089693166258225</v>
       </c>
       <c r="E15">
-        <v>-0.008899463440434617</v>
+        <v>0.007207339421380839</v>
       </c>
       <c r="F15">
-        <v>0.04035681080100164</v>
+        <v>-0.03423086153964715</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07857915460001846</v>
+        <v>-0.07549173542903852</v>
       </c>
       <c r="C16">
-        <v>-0.07711042580862429</v>
+        <v>-0.00525520861239883</v>
       </c>
       <c r="D16">
-        <v>-0.04263942863652655</v>
+        <v>0.1144194907317507</v>
       </c>
       <c r="E16">
-        <v>-0.09224658990562659</v>
+        <v>0.05673037968790135</v>
       </c>
       <c r="F16">
-        <v>0.02111555504498835</v>
+        <v>-0.03515852810770879</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01752724376818021</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004015698721154013</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02179434367899539</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01052942445360337</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02536539490486138</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04582679924550453</v>
+        <v>-0.06111285014185134</v>
       </c>
       <c r="C20">
-        <v>-0.02353521071722626</v>
+        <v>-0.002993559086791879</v>
       </c>
       <c r="D20">
-        <v>0.03145817266542369</v>
+        <v>0.06848046157008138</v>
       </c>
       <c r="E20">
-        <v>-0.07932125360588772</v>
+        <v>0.04986422964020812</v>
       </c>
       <c r="F20">
-        <v>0.01385171060481927</v>
+        <v>-0.03147530316715754</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03578745534745969</v>
+        <v>-0.03807883229228742</v>
       </c>
       <c r="C21">
-        <v>-0.02544527927290159</v>
+        <v>-0.008117389654598003</v>
       </c>
       <c r="D21">
-        <v>-0.02463548590885449</v>
+        <v>0.03426957123816154</v>
       </c>
       <c r="E21">
-        <v>-0.0628207036350069</v>
+        <v>-0.01302507995319807</v>
       </c>
       <c r="F21">
-        <v>0.03505696506222448</v>
+        <v>0.01836874659659774</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05630894831563218</v>
+        <v>-0.04243686872119016</v>
       </c>
       <c r="C22">
-        <v>0.004395536957566284</v>
+        <v>-0.0008419550502988095</v>
       </c>
       <c r="D22">
-        <v>0.6487093937293716</v>
+        <v>-0.001743393859195708</v>
       </c>
       <c r="E22">
-        <v>-0.04467109614722033</v>
+        <v>0.03334587059952399</v>
       </c>
       <c r="F22">
-        <v>-0.1037401078054669</v>
+        <v>0.02290037790006689</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05722819050722567</v>
+        <v>-0.04251923008475975</v>
       </c>
       <c r="C23">
-        <v>0.002711856180356921</v>
+        <v>-0.0008740879842930109</v>
       </c>
       <c r="D23">
-        <v>0.6510005400630235</v>
+        <v>-0.001537996912710428</v>
       </c>
       <c r="E23">
-        <v>-0.04961998514332103</v>
+        <v>0.03375965199987114</v>
       </c>
       <c r="F23">
-        <v>-0.1019505705085589</v>
+        <v>0.02234108870716638</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07640005879275656</v>
+        <v>-0.08183345596611961</v>
       </c>
       <c r="C24">
-        <v>-0.07283623822425683</v>
+        <v>-0.005414741150808766</v>
       </c>
       <c r="D24">
-        <v>-0.03506806138492448</v>
+        <v>0.1152093062516605</v>
       </c>
       <c r="E24">
-        <v>-0.09209737173201184</v>
+        <v>0.04484898448943968</v>
       </c>
       <c r="F24">
-        <v>0.02816305508068585</v>
+        <v>-0.02753320340654027</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07592900463880825</v>
+        <v>-0.08627174470823072</v>
       </c>
       <c r="C25">
-        <v>-0.05770922079104521</v>
+        <v>-0.007635248440481832</v>
       </c>
       <c r="D25">
-        <v>-0.0593527766248492</v>
+        <v>0.1005232204349268</v>
       </c>
       <c r="E25">
-        <v>-0.09899128500639988</v>
+        <v>0.02625587577676422</v>
       </c>
       <c r="F25">
-        <v>0.02988638587118682</v>
+        <v>-0.03640259342343469</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04141533747682762</v>
+        <v>-0.05631300128234991</v>
       </c>
       <c r="C26">
-        <v>-0.01268583801747359</v>
+        <v>-0.01544902503232089</v>
       </c>
       <c r="D26">
-        <v>0.01422294301721373</v>
+        <v>0.03140233839766525</v>
       </c>
       <c r="E26">
-        <v>-0.08672484458210569</v>
+        <v>0.02385522608902979</v>
       </c>
       <c r="F26">
-        <v>-0.02970073636458958</v>
+        <v>0.0001908632811151074</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.157533541770539</v>
+        <v>-0.1383976223181047</v>
       </c>
       <c r="C28">
-        <v>0.2693068940142764</v>
+        <v>-0.01091706529121808</v>
       </c>
       <c r="D28">
-        <v>-0.02010109803427495</v>
+        <v>-0.2734005815656074</v>
       </c>
       <c r="E28">
-        <v>-0.02557144783805695</v>
+        <v>-0.06616701982286732</v>
       </c>
       <c r="F28">
-        <v>0.01094453987674525</v>
+        <v>-0.04347099099134994</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03866986410961718</v>
+        <v>-0.026966020493668</v>
       </c>
       <c r="C29">
-        <v>-0.03330116418442093</v>
+        <v>-0.00923710590063709</v>
       </c>
       <c r="D29">
-        <v>-0.01612794788016142</v>
+        <v>0.02827050809722034</v>
       </c>
       <c r="E29">
-        <v>-0.05533226711209381</v>
+        <v>0.007795917559008295</v>
       </c>
       <c r="F29">
-        <v>0.03066040484691767</v>
+        <v>0.00638664067588333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07910313824271538</v>
+        <v>-0.06416466268779281</v>
       </c>
       <c r="C30">
-        <v>-0.06274398755301298</v>
+        <v>-0.007559431042521192</v>
       </c>
       <c r="D30">
-        <v>-0.0198626346249331</v>
+        <v>0.07581925066552539</v>
       </c>
       <c r="E30">
-        <v>-0.2741308753632832</v>
+        <v>0.01957015179973431</v>
       </c>
       <c r="F30">
-        <v>-0.04999302373702382</v>
+        <v>-0.1211885125655389</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02713163781016431</v>
+        <v>-0.04835512296814595</v>
       </c>
       <c r="C31">
-        <v>-0.05735997004702745</v>
+        <v>-0.01525776512047806</v>
       </c>
       <c r="D31">
-        <v>0.003483277728757739</v>
+        <v>0.0286044605783378</v>
       </c>
       <c r="E31">
-        <v>-0.03387348525086344</v>
+        <v>0.02625199315539552</v>
       </c>
       <c r="F31">
-        <v>0.02556569800007485</v>
+        <v>0.002233463438285884</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05089330635213596</v>
+        <v>-0.04877016145602851</v>
       </c>
       <c r="C32">
-        <v>-0.01473709138532872</v>
+        <v>-0.001217092459486114</v>
       </c>
       <c r="D32">
-        <v>-0.04600183387059062</v>
+        <v>0.02627888785884595</v>
       </c>
       <c r="E32">
-        <v>-0.01109265022990895</v>
+        <v>0.0247820161466094</v>
       </c>
       <c r="F32">
-        <v>0.1013892095082706</v>
+        <v>-0.005051934821565221</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09682125137637825</v>
+        <v>-0.09188071096309015</v>
       </c>
       <c r="C33">
-        <v>-0.07757979896921384</v>
+        <v>-0.0106952140758586</v>
       </c>
       <c r="D33">
-        <v>-0.02034360146898962</v>
+        <v>0.08988044983340616</v>
       </c>
       <c r="E33">
-        <v>-0.06679578593369014</v>
+        <v>0.04346263744489672</v>
       </c>
       <c r="F33">
-        <v>0.00366456801361175</v>
+        <v>-0.04252891247147844</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06630749381672635</v>
+        <v>-0.06894456667817465</v>
       </c>
       <c r="C34">
-        <v>-0.05146588367633773</v>
+        <v>-0.01335307476336011</v>
       </c>
       <c r="D34">
-        <v>-0.04556438861704681</v>
+        <v>0.09395600857912113</v>
       </c>
       <c r="E34">
-        <v>-0.08099471038585782</v>
+        <v>0.02763029104586506</v>
       </c>
       <c r="F34">
-        <v>0.0337925898939641</v>
+        <v>-0.05202975532019376</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01773306110734326</v>
+        <v>-0.02436680703856841</v>
       </c>
       <c r="C35">
-        <v>-0.01736425627854046</v>
+        <v>-0.002733289299365064</v>
       </c>
       <c r="D35">
-        <v>-0.0005238192775177266</v>
+        <v>0.01059894716343237</v>
       </c>
       <c r="E35">
-        <v>-0.03206007094201201</v>
+        <v>0.0114554370518962</v>
       </c>
       <c r="F35">
-        <v>0.01204664613297732</v>
+        <v>-0.01192657720908665</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02613057324756245</v>
+        <v>-0.02597887669416554</v>
       </c>
       <c r="C36">
-        <v>-0.01916484687860533</v>
+        <v>-0.007004988766922118</v>
       </c>
       <c r="D36">
-        <v>0.01381253563786015</v>
+        <v>0.03800071845249935</v>
       </c>
       <c r="E36">
-        <v>-0.0848570107952047</v>
+        <v>0.01587740200588597</v>
       </c>
       <c r="F36">
-        <v>0.01716069659112063</v>
+        <v>-0.013802381269795</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0240364230157067</v>
+        <v>-0.003025744244543687</v>
       </c>
       <c r="C38">
-        <v>-0.05193917928370114</v>
+        <v>-0.0005685755283030734</v>
       </c>
       <c r="D38">
-        <v>0.02883879668591055</v>
+        <v>0.003273260639776272</v>
       </c>
       <c r="E38">
-        <v>0.08058246115497412</v>
+        <v>0.004252648424815307</v>
       </c>
       <c r="F38">
-        <v>-0.1033770889256927</v>
+        <v>0.00322004996052266</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09706084537050023</v>
+        <v>-0.1117800981844833</v>
       </c>
       <c r="C39">
-        <v>-0.08704260686249085</v>
+        <v>-0.01948597382612777</v>
       </c>
       <c r="D39">
-        <v>-0.1311509381886687</v>
+        <v>0.1469125165768598</v>
       </c>
       <c r="E39">
-        <v>-0.161020492623813</v>
+        <v>0.04919543658456597</v>
       </c>
       <c r="F39">
-        <v>-0.07181200672908278</v>
+        <v>-0.03836959263963637</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02818503611215072</v>
+        <v>-0.03721324221458514</v>
       </c>
       <c r="C40">
-        <v>-0.06188018295043948</v>
+        <v>-0.007732474005085307</v>
       </c>
       <c r="D40">
-        <v>0.02538163828791652</v>
+        <v>0.02809954090107036</v>
       </c>
       <c r="E40">
-        <v>-0.04400860658186726</v>
+        <v>0.001870105003281338</v>
       </c>
       <c r="F40">
-        <v>0.08833360663529431</v>
+        <v>0.01741828997126654</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03311755347902603</v>
+        <v>-0.02622653575766123</v>
       </c>
       <c r="C41">
-        <v>-0.02416331931979936</v>
+        <v>-0.006798354508752706</v>
       </c>
       <c r="D41">
-        <v>-0.01954913176366352</v>
+        <v>0.01151136395987064</v>
       </c>
       <c r="E41">
-        <v>-0.007552471794713687</v>
+        <v>0.01096843197367235</v>
       </c>
       <c r="F41">
-        <v>-0.0241809087513507</v>
+        <v>0.01205281710199553</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04633124517333703</v>
+        <v>-0.04294012639540035</v>
       </c>
       <c r="C43">
-        <v>-0.04945240005969698</v>
+        <v>-0.007186325337406962</v>
       </c>
       <c r="D43">
-        <v>0.01065800597983824</v>
+        <v>0.02202469093523577</v>
       </c>
       <c r="E43">
-        <v>-0.03205900939347901</v>
+        <v>0.02597948066858198</v>
       </c>
       <c r="F43">
-        <v>-0.04574562488771296</v>
+        <v>0.01104385039456014</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09525806104532289</v>
+        <v>-0.07375654287279142</v>
       </c>
       <c r="C44">
-        <v>-0.08142277054063356</v>
+        <v>-0.02383867237094755</v>
       </c>
       <c r="D44">
-        <v>0.07417352044560249</v>
+        <v>0.09985823816044305</v>
       </c>
       <c r="E44">
-        <v>-0.0879817314731477</v>
+        <v>0.06399679592480749</v>
       </c>
       <c r="F44">
-        <v>0.065650969234506</v>
+        <v>-0.1781644252457356</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03808586171887533</v>
+        <v>-0.02378149941792474</v>
       </c>
       <c r="C46">
-        <v>-0.03986811197541974</v>
+        <v>-0.004280413570444031</v>
       </c>
       <c r="D46">
-        <v>0.04323688489625958</v>
+        <v>0.01174755979284127</v>
       </c>
       <c r="E46">
-        <v>-0.02914361359820713</v>
+        <v>0.02255916389612315</v>
       </c>
       <c r="F46">
-        <v>0.05035376184752505</v>
+        <v>0.00227729915694738</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0549211713512282</v>
+        <v>-0.05291575671833901</v>
       </c>
       <c r="C47">
-        <v>-0.04768800537707205</v>
+        <v>-0.003460947266870578</v>
       </c>
       <c r="D47">
-        <v>-0.0007100512143753958</v>
+        <v>0.01281410349803306</v>
       </c>
       <c r="E47">
-        <v>-0.02495528701151645</v>
+        <v>0.02301907637059784</v>
       </c>
       <c r="F47">
-        <v>-0.0132603394505746</v>
+        <v>0.04660614497922632</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04554085245674104</v>
+        <v>-0.0479676196891171</v>
       </c>
       <c r="C48">
-        <v>-0.01788406094770269</v>
+        <v>-0.003344706077947151</v>
       </c>
       <c r="D48">
-        <v>-0.01359380962122726</v>
+        <v>0.04426991613257534</v>
       </c>
       <c r="E48">
-        <v>-0.08466608900253107</v>
+        <v>-0.008811795280935723</v>
       </c>
       <c r="F48">
-        <v>0.06314560264175213</v>
+        <v>-0.0187000035599366</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2342462163921427</v>
+        <v>-0.2062990970944647</v>
       </c>
       <c r="C49">
-        <v>-0.051565635845241</v>
+        <v>-0.0171022664775698</v>
       </c>
       <c r="D49">
-        <v>-0.02458882391551961</v>
+        <v>-0.00518167172585861</v>
       </c>
       <c r="E49">
-        <v>0.2867717620463871</v>
+        <v>0.04180275271300059</v>
       </c>
       <c r="F49">
-        <v>-0.09127623560877048</v>
+        <v>-0.03493746136263277</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03556758185431564</v>
+        <v>-0.04868178327143509</v>
       </c>
       <c r="C50">
-        <v>-0.05082519228741174</v>
+        <v>-0.01144581340215788</v>
       </c>
       <c r="D50">
-        <v>-0.01166694684556397</v>
+        <v>0.02680564067999663</v>
       </c>
       <c r="E50">
-        <v>-0.06696492774815625</v>
+        <v>0.02836768710072149</v>
       </c>
       <c r="F50">
-        <v>-0.005434278465492219</v>
+        <v>-0.007006689462668735</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02875077282844988</v>
+        <v>-0.003360661056205942</v>
       </c>
       <c r="C51">
-        <v>-0.002227828053792537</v>
+        <v>-0.0007983601773056771</v>
       </c>
       <c r="D51">
-        <v>-0.001046677758656261</v>
+        <v>-0.00157291042576489</v>
       </c>
       <c r="E51">
-        <v>0.05390745964580032</v>
+        <v>0.001404372189403898</v>
       </c>
       <c r="F51">
-        <v>-0.005236500625114219</v>
+        <v>-0.004411236113265691</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02967200398875926</v>
+        <v>-0.1415510671243632</v>
       </c>
       <c r="C52">
-        <v>-0.01145922830671144</v>
+        <v>-0.01272298053477211</v>
       </c>
       <c r="D52">
-        <v>-0.0208288907274243</v>
+        <v>0.05014486529604121</v>
       </c>
       <c r="E52">
-        <v>-0.004666721410450008</v>
+        <v>0.01611624164046114</v>
       </c>
       <c r="F52">
-        <v>-0.02669685651752819</v>
+        <v>-0.03117917400105526</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1453293515585287</v>
+        <v>-0.1728026350567454</v>
       </c>
       <c r="C53">
-        <v>-0.05604119593589312</v>
+        <v>-0.01547777685486521</v>
       </c>
       <c r="D53">
-        <v>0.02279060583108959</v>
+        <v>0.01593685131591385</v>
       </c>
       <c r="E53">
-        <v>0.0558618767382708</v>
+        <v>0.03893781323948281</v>
       </c>
       <c r="F53">
-        <v>-0.1033444986250794</v>
+        <v>-0.05996236965953357</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06182456433555315</v>
+        <v>-0.02222293126493509</v>
       </c>
       <c r="C54">
-        <v>-0.04250580372759226</v>
+        <v>-0.01303755846232458</v>
       </c>
       <c r="D54">
-        <v>0.0004788208284739899</v>
+        <v>0.0292021744480616</v>
       </c>
       <c r="E54">
-        <v>-0.1244125294367196</v>
+        <v>0.01499413357491777</v>
       </c>
       <c r="F54">
-        <v>0.0793809948274236</v>
+        <v>0.0005280589295213789</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08227881062391403</v>
+        <v>-0.114444686556177</v>
       </c>
       <c r="C55">
-        <v>-0.05494623122813765</v>
+        <v>-0.01450052430990364</v>
       </c>
       <c r="D55">
-        <v>-0.03064066825956011</v>
+        <v>0.01560899245388191</v>
       </c>
       <c r="E55">
-        <v>0.01627211260270741</v>
+        <v>0.03047997555261309</v>
       </c>
       <c r="F55">
-        <v>-0.02929133819166373</v>
+        <v>-0.04716456990446754</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1390265044115029</v>
+        <v>-0.1778302024365764</v>
       </c>
       <c r="C56">
-        <v>-0.09568133489837079</v>
+        <v>-0.01302103459145165</v>
       </c>
       <c r="D56">
-        <v>-0.0127796297805043</v>
+        <v>0.01287389133571426</v>
       </c>
       <c r="E56">
-        <v>0.02983176315393093</v>
+        <v>0.04265803891713591</v>
       </c>
       <c r="F56">
-        <v>-0.07047925330100728</v>
+        <v>-0.0297683277144892</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02903068308719189</v>
+        <v>-0.04707919761242222</v>
       </c>
       <c r="C58">
-        <v>-0.0352892919113018</v>
+        <v>-0.003503949245127332</v>
       </c>
       <c r="D58">
-        <v>0.03085177623669362</v>
+        <v>0.06320125221441032</v>
       </c>
       <c r="E58">
-        <v>-0.04444540812042187</v>
+        <v>0.01438043211814312</v>
       </c>
       <c r="F58">
-        <v>-0.01252801701768593</v>
+        <v>0.04311603148785907</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2164138685661788</v>
+        <v>-0.1702142905435819</v>
       </c>
       <c r="C59">
-        <v>0.2345604684133234</v>
+        <v>-0.01271108624936542</v>
       </c>
       <c r="D59">
-        <v>-0.05890111172155441</v>
+        <v>-0.230979064836317</v>
       </c>
       <c r="E59">
-        <v>0.02638875510869165</v>
+        <v>-0.04741327429905489</v>
       </c>
       <c r="F59">
-        <v>0.03315199562364246</v>
+        <v>0.03129357379384398</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2335793578617738</v>
+        <v>-0.2397226470301579</v>
       </c>
       <c r="C60">
-        <v>-0.1474902940236944</v>
+        <v>0.004124200424511085</v>
       </c>
       <c r="D60">
-        <v>-0.07132323050769972</v>
+        <v>0.05285796985837549</v>
       </c>
       <c r="E60">
-        <v>0.105438757272365</v>
+        <v>0.0120089094040356</v>
       </c>
       <c r="F60">
-        <v>-0.01072104908590632</v>
+        <v>0.04230681368174688</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09333410771506119</v>
+        <v>-0.08566036785696811</v>
       </c>
       <c r="C61">
-        <v>-0.06970549225282573</v>
+        <v>-0.01489851310380548</v>
       </c>
       <c r="D61">
-        <v>-0.07608857709335219</v>
+        <v>0.106862371013613</v>
       </c>
       <c r="E61">
-        <v>-0.1377848647178568</v>
+        <v>0.03335513174540639</v>
       </c>
       <c r="F61">
-        <v>-0.005166719525795336</v>
+        <v>-0.02513409817891989</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1291303857930339</v>
+        <v>-0.1689777038791137</v>
       </c>
       <c r="C62">
-        <v>-0.07228938002050297</v>
+        <v>-0.0171270147578982</v>
       </c>
       <c r="D62">
-        <v>0.008436105336896925</v>
+        <v>0.0137087122960346</v>
       </c>
       <c r="E62">
-        <v>0.05375213096614661</v>
+        <v>0.03868474053617108</v>
       </c>
       <c r="F62">
-        <v>-0.07072064568181223</v>
+        <v>-0.01191733466100767</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04813908064472353</v>
+        <v>-0.04262899369222439</v>
       </c>
       <c r="C63">
-        <v>-0.01943881201346677</v>
+        <v>-0.004428808601606962</v>
       </c>
       <c r="D63">
-        <v>-0.01258712283638185</v>
+        <v>0.04623857863768584</v>
       </c>
       <c r="E63">
-        <v>-0.0773835069237182</v>
+        <v>0.0141751536678964</v>
       </c>
       <c r="F63">
-        <v>0.002884021723545427</v>
+        <v>-0.01080850758252503</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09457883013284127</v>
+        <v>-0.1119611171693451</v>
       </c>
       <c r="C64">
-        <v>-0.06086646284012397</v>
+        <v>-0.01206674423559433</v>
       </c>
       <c r="D64">
-        <v>-0.002560819959014413</v>
+        <v>0.03899127623575464</v>
       </c>
       <c r="E64">
-        <v>-0.07953806901698793</v>
+        <v>0.01890315884248023</v>
       </c>
       <c r="F64">
-        <v>-0.008039463796646907</v>
+        <v>-0.01727611730455168</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1215857296845007</v>
+        <v>-0.1430242983166035</v>
       </c>
       <c r="C65">
-        <v>-0.04994412193721524</v>
+        <v>-0.03095429712571998</v>
       </c>
       <c r="D65">
-        <v>-0.01465029176911247</v>
+        <v>-0.04716952998874556</v>
       </c>
       <c r="E65">
-        <v>-0.1028126525330762</v>
+        <v>0.003582523953738947</v>
       </c>
       <c r="F65">
-        <v>-0.008672311202351774</v>
+        <v>-0.0417742428516305</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1082205488314454</v>
+        <v>-0.1338046504071466</v>
       </c>
       <c r="C66">
-        <v>-0.1208573635202217</v>
+        <v>-0.01701907421822477</v>
       </c>
       <c r="D66">
-        <v>-0.1166563679208141</v>
+        <v>0.1336749145449634</v>
       </c>
       <c r="E66">
-        <v>-0.1352126167315003</v>
+        <v>0.05864531831908856</v>
       </c>
       <c r="F66">
-        <v>-0.08123008779216982</v>
+        <v>-0.0436755982521779</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08098216224173328</v>
+        <v>-0.06567131126250134</v>
       </c>
       <c r="C67">
-        <v>-0.06184319950467465</v>
+        <v>-0.004532364664906031</v>
       </c>
       <c r="D67">
-        <v>0.03693122259328921</v>
+        <v>0.05518125594543433</v>
       </c>
       <c r="E67">
-        <v>0.06610037176128979</v>
+        <v>0.0197096542684875</v>
       </c>
       <c r="F67">
-        <v>-0.133721189950249</v>
+        <v>0.04266129262279647</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1320649038004683</v>
+        <v>-0.1114012611276236</v>
       </c>
       <c r="C68">
-        <v>0.2659662931710674</v>
+        <v>-0.02168088156769944</v>
       </c>
       <c r="D68">
-        <v>-0.03009402082142167</v>
+        <v>-0.27167361822145</v>
       </c>
       <c r="E68">
-        <v>-0.05204806017852006</v>
+        <v>-0.08536433944277276</v>
       </c>
       <c r="F68">
-        <v>0.001458417011390386</v>
+        <v>-0.04915110012524267</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04285599028184996</v>
+        <v>-0.04057684691358398</v>
       </c>
       <c r="C69">
-        <v>-0.01859972696155225</v>
+        <v>-0.001196153399932214</v>
       </c>
       <c r="D69">
-        <v>0.003249483842076629</v>
+        <v>0.008952911100103862</v>
       </c>
       <c r="E69">
-        <v>-0.01859776145474432</v>
+        <v>0.02608639607691233</v>
       </c>
       <c r="F69">
-        <v>-0.03205790725730778</v>
+        <v>0.01592503395430116</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05116751764428049</v>
+        <v>-0.06433269172201742</v>
       </c>
       <c r="C70">
-        <v>-0.06087760734464018</v>
+        <v>0.02704357257533527</v>
       </c>
       <c r="D70">
-        <v>-0.02656059203801522</v>
+        <v>0.02138247149984405</v>
       </c>
       <c r="E70">
-        <v>-0.05863717778413136</v>
+        <v>-0.04358347524254872</v>
       </c>
       <c r="F70">
-        <v>0.002325193640096496</v>
+        <v>0.3397339922995415</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1509834800547401</v>
+        <v>-0.1307226615215593</v>
       </c>
       <c r="C71">
-        <v>0.2735009241478791</v>
+        <v>-0.02575104663401377</v>
       </c>
       <c r="D71">
-        <v>-0.02533297935966941</v>
+        <v>-0.2876118764324179</v>
       </c>
       <c r="E71">
-        <v>-0.06201691734847735</v>
+        <v>-0.09300530576702457</v>
       </c>
       <c r="F71">
-        <v>-0.00830530237383189</v>
+        <v>-0.05056900541217833</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1256389336371135</v>
+        <v>-0.1376863295780957</v>
       </c>
       <c r="C72">
-        <v>-0.02186941171072806</v>
+        <v>-0.0238627780575703</v>
       </c>
       <c r="D72">
-        <v>0.0005835672178200261</v>
+        <v>0.006743301804389062</v>
       </c>
       <c r="E72">
-        <v>-0.04804573286290764</v>
+        <v>0.04205271136357323</v>
       </c>
       <c r="F72">
-        <v>-0.04673716323943397</v>
+        <v>-0.02413482634126124</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2252046777140456</v>
+        <v>-0.2089596695380122</v>
       </c>
       <c r="C73">
-        <v>-0.1171595389934607</v>
+        <v>-0.01161439524400634</v>
       </c>
       <c r="D73">
-        <v>-0.1205743169333858</v>
+        <v>0.02088775092028081</v>
       </c>
       <c r="E73">
-        <v>0.4669054820784242</v>
+        <v>0.06961556417259118</v>
       </c>
       <c r="F73">
-        <v>-0.2366319997316104</v>
+        <v>-0.02439582852559514</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09165749565319549</v>
+        <v>-0.09383011024455254</v>
       </c>
       <c r="C74">
-        <v>-0.08601927826698076</v>
+        <v>-0.01178465181824257</v>
       </c>
       <c r="D74">
-        <v>0.001751515449868751</v>
+        <v>0.02609914674933747</v>
       </c>
       <c r="E74">
-        <v>0.02598211835322381</v>
+        <v>0.05109164124243108</v>
       </c>
       <c r="F74">
-        <v>-0.109545092380459</v>
+        <v>-0.04107266166247225</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09256796185278018</v>
+        <v>-0.1304663205917979</v>
       </c>
       <c r="C75">
-        <v>-0.06561581135060174</v>
+        <v>-0.02618007312162142</v>
       </c>
       <c r="D75">
-        <v>0.0005793578339614522</v>
+        <v>0.0362632817952437</v>
       </c>
       <c r="E75">
-        <v>0.002997105282670183</v>
+        <v>0.05998421395066411</v>
       </c>
       <c r="F75">
-        <v>-0.01374678895729574</v>
+        <v>-0.008882555762403667</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06640198321364361</v>
+        <v>-0.008116055569637695</v>
       </c>
       <c r="C76">
-        <v>-0.07027274642282128</v>
+        <v>-0.001812209222912871</v>
       </c>
       <c r="D76">
-        <v>0.007978995613758722</v>
+        <v>0.003159448232097062</v>
       </c>
       <c r="E76">
-        <v>0.05724079892249002</v>
+        <v>0.008292753291559823</v>
       </c>
       <c r="F76">
-        <v>-0.02560002506308861</v>
+        <v>-0.003164220387184387</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06459924247562183</v>
+        <v>-0.08056565639746133</v>
       </c>
       <c r="C77">
-        <v>-0.02518803753957213</v>
+        <v>-0.01177417269812362</v>
       </c>
       <c r="D77">
-        <v>-0.04086235337626684</v>
+        <v>0.1028263259273533</v>
       </c>
       <c r="E77">
-        <v>-0.1788784895107347</v>
+        <v>0.03129240427458013</v>
       </c>
       <c r="F77">
-        <v>0.1060523380350877</v>
+        <v>-0.03523200952400644</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1744014002483135</v>
+        <v>-0.1098724924640233</v>
       </c>
       <c r="C78">
-        <v>-0.1707920403683754</v>
+        <v>-0.04434687730980276</v>
       </c>
       <c r="D78">
-        <v>0.1642192446423741</v>
+        <v>0.1199093129967921</v>
       </c>
       <c r="E78">
-        <v>0.08372079127545681</v>
+        <v>0.09111552115703996</v>
       </c>
       <c r="F78">
-        <v>0.6347471718418203</v>
+        <v>-0.07263596510953607</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.127860094123818</v>
+        <v>-0.1626224911310566</v>
       </c>
       <c r="C79">
-        <v>-0.07729539315294914</v>
+        <v>-0.02018499902052042</v>
       </c>
       <c r="D79">
-        <v>0.01467863165321353</v>
+        <v>0.02111476346035848</v>
       </c>
       <c r="E79">
-        <v>0.01538555137988024</v>
+        <v>0.04926181198041094</v>
       </c>
       <c r="F79">
-        <v>-0.0464396210241266</v>
+        <v>-0.005220956273847403</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07178844249164633</v>
+        <v>-0.08040424100891644</v>
       </c>
       <c r="C80">
-        <v>-0.05226649662727055</v>
+        <v>0.0008801756623077668</v>
       </c>
       <c r="D80">
-        <v>-0.081045062640827</v>
+        <v>0.05884548850052811</v>
       </c>
       <c r="E80">
-        <v>-0.06768878025745508</v>
+        <v>0.02913717045307473</v>
       </c>
       <c r="F80">
-        <v>-0.03762876052106642</v>
+        <v>0.01101640030468567</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1260676822262593</v>
+        <v>-0.1225258424960819</v>
       </c>
       <c r="C81">
-        <v>-0.05795128572318874</v>
+        <v>-0.02999588459004924</v>
       </c>
       <c r="D81">
-        <v>0.0104760486688919</v>
+        <v>0.02266153111123049</v>
       </c>
       <c r="E81">
-        <v>-0.06338123193269037</v>
+        <v>0.05945970422848431</v>
       </c>
       <c r="F81">
-        <v>-0.02832973179626298</v>
+        <v>0.002114288872954883</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1179291775867348</v>
+        <v>-0.1620262212572047</v>
       </c>
       <c r="C82">
-        <v>-0.05800876946355527</v>
+        <v>-0.02036892559802301</v>
       </c>
       <c r="D82">
-        <v>-0.004135180586789179</v>
+        <v>0.01964926397778987</v>
       </c>
       <c r="E82">
-        <v>0.001890524527873926</v>
+        <v>0.03554971561133576</v>
       </c>
       <c r="F82">
-        <v>-0.105474015993193</v>
+        <v>-0.05428055840586563</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07959518753846358</v>
+        <v>-0.06609241625880546</v>
       </c>
       <c r="C83">
-        <v>-0.0855969626981191</v>
+        <v>-0.004313655925814112</v>
       </c>
       <c r="D83">
-        <v>-0.01840112628498862</v>
+        <v>0.04687669015566608</v>
       </c>
       <c r="E83">
-        <v>-0.0495515933001148</v>
+        <v>0.003776499707463544</v>
       </c>
       <c r="F83">
-        <v>-0.08821724180113852</v>
+        <v>0.03199330594422926</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04833353697843494</v>
+        <v>-0.06075954364206178</v>
       </c>
       <c r="C84">
-        <v>0.06743713645482226</v>
+        <v>-0.01196104295134509</v>
       </c>
       <c r="D84">
-        <v>-0.04722952900120304</v>
+        <v>0.06010364383484684</v>
       </c>
       <c r="E84">
-        <v>0.03174877326530572</v>
+        <v>-0.004275196378033104</v>
       </c>
       <c r="F84">
-        <v>0.2220759675092516</v>
+        <v>-0.01516630652746303</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1191834573989885</v>
+        <v>-0.1380930654894242</v>
       </c>
       <c r="C85">
-        <v>-0.05046959880869955</v>
+        <v>-0.0255094894832362</v>
       </c>
       <c r="D85">
-        <v>0.003207295997381081</v>
+        <v>0.01705733486574464</v>
       </c>
       <c r="E85">
-        <v>0.01718405340008254</v>
+        <v>0.04064480732265689</v>
       </c>
       <c r="F85">
-        <v>-0.06066335584411425</v>
+        <v>-0.03998026542495806</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09007420671635566</v>
+        <v>-0.09989770987015247</v>
       </c>
       <c r="C86">
-        <v>-0.007599071821659528</v>
+        <v>0.006892615721280505</v>
       </c>
       <c r="D86">
-        <v>0.02713527154587796</v>
+        <v>0.01569163635012668</v>
       </c>
       <c r="E86">
-        <v>0.2943652705080815</v>
+        <v>0.1318125566015053</v>
       </c>
       <c r="F86">
-        <v>0.4523428655003713</v>
+        <v>0.8333288028118413</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.121764822416189</v>
+        <v>-0.1007144071114712</v>
       </c>
       <c r="C87">
-        <v>-0.07108910983415991</v>
+        <v>-0.02630512400676096</v>
       </c>
       <c r="D87">
-        <v>0.01082294566624772</v>
+        <v>0.07161352187273838</v>
       </c>
       <c r="E87">
-        <v>-0.06744638081356691</v>
+        <v>-0.05369656835953053</v>
       </c>
       <c r="F87">
-        <v>0.025405255859148</v>
+        <v>-0.09231295602908138</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05655182948554324</v>
+        <v>-0.06159161092603582</v>
       </c>
       <c r="C88">
-        <v>-0.06301802890217133</v>
+        <v>-0.003414212099457042</v>
       </c>
       <c r="D88">
-        <v>-0.03190709765396333</v>
+        <v>0.05548308661134279</v>
       </c>
       <c r="E88">
-        <v>-0.01413054791338579</v>
+        <v>0.02617716236801412</v>
       </c>
       <c r="F88">
-        <v>-0.02551307744626856</v>
+        <v>-0.006657382760452846</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2341909026006571</v>
+        <v>-0.1324865997100721</v>
       </c>
       <c r="C89">
-        <v>0.3695038339059887</v>
+        <v>-0.004549775446156555</v>
       </c>
       <c r="D89">
-        <v>0.03508965397591339</v>
+        <v>-0.2715149168569586</v>
       </c>
       <c r="E89">
-        <v>0.01864068724556299</v>
+        <v>-0.09150884484138547</v>
       </c>
       <c r="F89">
-        <v>0.03521695283053079</v>
+        <v>-0.03143806278433799</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.157497925470841</v>
+        <v>-0.1425762178024318</v>
       </c>
       <c r="C90">
-        <v>0.2551243385057352</v>
+        <v>-0.02111852546175587</v>
       </c>
       <c r="D90">
-        <v>-0.0226120908708451</v>
+        <v>-0.2724857183362717</v>
       </c>
       <c r="E90">
-        <v>-0.0168880007242585</v>
+        <v>-0.1037896915559103</v>
       </c>
       <c r="F90">
-        <v>-0.01317257615832259</v>
+        <v>-0.03595729848840474</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07171331467094824</v>
+        <v>-0.116708837053128</v>
       </c>
       <c r="C91">
-        <v>-0.06693459296649543</v>
+        <v>-0.01608565505998544</v>
       </c>
       <c r="D91">
-        <v>0.001736680131041838</v>
+        <v>-0.002241054420082024</v>
       </c>
       <c r="E91">
-        <v>0.01516277147041752</v>
+        <v>0.05920766889042046</v>
       </c>
       <c r="F91">
-        <v>-0.0009213702541258103</v>
+        <v>0.02993011564438087</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1720642670154665</v>
+        <v>-0.1450688143430594</v>
       </c>
       <c r="C92">
-        <v>0.2934332929201283</v>
+        <v>-0.01253728992199126</v>
       </c>
       <c r="D92">
-        <v>0.01667808880806886</v>
+        <v>-0.3057180695283853</v>
       </c>
       <c r="E92">
-        <v>-0.05420513983065944</v>
+        <v>-0.09987718527647195</v>
       </c>
       <c r="F92">
-        <v>0.0366119218534168</v>
+        <v>-0.02728992039668661</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1762232547470764</v>
+        <v>-0.1465553613259503</v>
       </c>
       <c r="C93">
-        <v>0.2978477203540309</v>
+        <v>-0.01780906154413081</v>
       </c>
       <c r="D93">
-        <v>-0.05107311516302453</v>
+        <v>-0.2770651112625084</v>
       </c>
       <c r="E93">
-        <v>-0.02657600614996749</v>
+        <v>-0.07091276869422274</v>
       </c>
       <c r="F93">
-        <v>0.01106831007216865</v>
+        <v>-0.02671236836011742</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1172637156059123</v>
+        <v>-0.1337002321963017</v>
       </c>
       <c r="C94">
-        <v>-0.08313140059211517</v>
+        <v>-0.02353790629379682</v>
       </c>
       <c r="D94">
-        <v>0.01665812859001012</v>
+        <v>0.04882360956158602</v>
       </c>
       <c r="E94">
-        <v>0.02934074687376578</v>
+        <v>0.06205742554945337</v>
       </c>
       <c r="F94">
-        <v>-0.04774801995258633</v>
+        <v>-0.02724216806647511</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1352333131296348</v>
+        <v>-0.1269989265483012</v>
       </c>
       <c r="C95">
-        <v>-0.06617779371157344</v>
+        <v>-0.006518362913859745</v>
       </c>
       <c r="D95">
-        <v>0.009061156240090039</v>
+        <v>0.08902573854108013</v>
       </c>
       <c r="E95">
-        <v>-0.04131048490091987</v>
+        <v>0.04106966424313995</v>
       </c>
       <c r="F95">
-        <v>0.1382304652635813</v>
+        <v>0.01101414028992234</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0001170414311076733</v>
+        <v>-0.0954296668951046</v>
       </c>
       <c r="C96">
-        <v>-0.0001808618724574524</v>
+        <v>0.9893261934126174</v>
       </c>
       <c r="D96">
-        <v>-4.682786783457141e-05</v>
+        <v>-0.01504752166483383</v>
       </c>
       <c r="E96">
-        <v>-0.0004618221002414767</v>
+        <v>0.0604157828697354</v>
       </c>
       <c r="F96">
-        <v>0.000488207145264282</v>
+        <v>-0.05014320028610842</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1198765592166118</v>
+        <v>-0.1879425532351283</v>
       </c>
       <c r="C97">
-        <v>0.03038107444370423</v>
+        <v>0.01226078613767092</v>
       </c>
       <c r="D97">
-        <v>0.02426071831187307</v>
+        <v>-0.01124523864813437</v>
       </c>
       <c r="E97">
-        <v>-0.2976097724382708</v>
+        <v>0.01369843740602622</v>
       </c>
       <c r="F97">
-        <v>-0.1717803356605758</v>
+        <v>0.1703929278878348</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2552408404443924</v>
+        <v>-0.2066838024793101</v>
       </c>
       <c r="C98">
-        <v>-0.1045831411153243</v>
+        <v>-0.007014494749785678</v>
       </c>
       <c r="D98">
-        <v>0.07914876530790395</v>
+        <v>0.01380432843297889</v>
       </c>
       <c r="E98">
-        <v>0.2369176096873224</v>
+        <v>-0.08914532694539638</v>
       </c>
       <c r="F98">
-        <v>-0.08943789306864386</v>
+        <v>0.1369838529895882</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06967684668892098</v>
+        <v>-0.0578037378897511</v>
       </c>
       <c r="C99">
-        <v>-0.06004780343488054</v>
+        <v>0.003026932580243723</v>
       </c>
       <c r="D99">
-        <v>0.01156066931784621</v>
+        <v>0.03355412571762161</v>
       </c>
       <c r="E99">
-        <v>0.03444697883740525</v>
+        <v>0.02611266334144783</v>
       </c>
       <c r="F99">
-        <v>-0.008561895592103899</v>
+        <v>-0.00412133512280225</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1229516155938363</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04804585886438381</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3235943014608595</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9056852907671039</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05883312881762966</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03808119547859747</v>
+        <v>-0.02686774276591173</v>
       </c>
       <c r="C101">
-        <v>-0.03329326092376438</v>
+        <v>-0.009156989735721001</v>
       </c>
       <c r="D101">
-        <v>-0.01689559043221251</v>
+        <v>0.02795866260777509</v>
       </c>
       <c r="E101">
-        <v>-0.05175342209258856</v>
+        <v>0.007994694002583118</v>
       </c>
       <c r="F101">
-        <v>0.03093884500883996</v>
+        <v>0.008440714124152754</v>
       </c>
     </row>
     <row r="102" spans="1:6">
